--- a/Other/Bug Report.xlsx
+++ b/Other/Bug Report.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>BUG ID</t>
   </si>
@@ -73,6 +73,9 @@
     <t>This bug also happen in another category (Women and Dresses).
 In 'Women' category, show 4 out of 7.
 In 'Dresses' category, show 3 out of 5.</t>
+  </si>
+  <si>
+    <t>Screenshot</t>
   </si>
 </sst>
 </file>
@@ -96,7 +99,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -119,11 +122,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -131,6 +160,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -147,6 +188,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3081984</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="4781550"/>
+          <a:ext cx="4139259" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -412,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C8"/>
+  <dimension ref="B2:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,8 +564,67 @@
         <v>12</v>
       </c>
     </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B10:C21"/>
+    <mergeCell ref="B9:C9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>